--- a/veg upma from Gauranga p enhanced.xlsx
+++ b/veg upma from Gauranga p enhanced.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amit_temp\Google Drive\recipies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandi\Google Drive\recipies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA426375-3ABB-48E2-9389-F0B2AAD0D639}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7DEE48-B5F4-489A-B79F-9AAD213B5F80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{64266B9D-E995-4356-A2AD-858282E45A3A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{64266B9D-E995-4356-A2AD-858282E45A3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -160,7 +162,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,7 +179,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color rgb="FF92D050"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -204,10 +215,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,289 +536,291 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72722D8-5C22-4640-B31C-40EA241EE811}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D24" sqref="A24:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>0.5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>125</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>0.25</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>0.75</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>2</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>0.5</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>0.33</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>1.5</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>2</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>0.25</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>1</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>2</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>2</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>0.75</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>6</v>
       </c>
     </row>
